--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0137.txt</t>
+  </si>
+  <si>
+    <t>CDC Patch to be released:</t>
+  </si>
+  <si>
+    <t>EKA_CDC_1.0_Objects _0008.sql</t>
+  </si>
+  <si>
+    <t>EKA_CDC_1.0_Objects _0007.sql</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0145.txt</t>
   </si>
 </sst>
 </file>
@@ -393,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,7 +498,28 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="1"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40804</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -63,16 +63,22 @@
     <t>EKA_METALS_PATCH_0137.txt</t>
   </si>
   <si>
-    <t>CDC Patch to be released:</t>
-  </si>
-  <si>
-    <t>EKA_CDC_1.0_Objects _0008.sql</t>
-  </si>
-  <si>
-    <t>EKA_CDC_1.0_Objects _0007.sql</t>
-  </si>
-  <si>
     <t>EKA_METALS_PATCH_0145.txt</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0147.txt</t>
+  </si>
+  <si>
+    <t>1.4.5</t>
+  </si>
+  <si>
+    <t>EKA_CDC_1.3.2_Patch_0053.txt</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0155.txt</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0167.txt</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -505,20 +511,63 @@
         <v>40804</v>
       </c>
       <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40807</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="I5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="D12" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40810</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40816</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -78,7 +78,22 @@
     <t>EKA_METALS_PATCH_0155.txt</t>
   </si>
   <si>
-    <t>EKA_METALS_PATCH_0167.txt</t>
+    <t>EKA_METALS_PATCH_0173.txt</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0182.txt</t>
+  </si>
+  <si>
+    <t>1.4.8</t>
+  </si>
+  <si>
+    <t>EKA_CDC_1.3.3_Patch_0063.txt</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0202.txt</t>
+  </si>
+  <si>
+    <t>CDC 1.3.3</t>
   </si>
 </sst>
 </file>
@@ -114,9 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -564,10 +580,53 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>40816</v>
+        <v>40820</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>40835</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>40847</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>CDC 1.3.3</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0214.txt</t>
+  </si>
+  <si>
+    <t>1.4.9</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0234.txt</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0237.txt</t>
   </si>
 </sst>
 </file>
@@ -427,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
@@ -627,6 +639,39 @@
       </c>
       <c r="I10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1">
+        <v>40862</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="2">
+        <v>40870</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="2">
+        <v>40871</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0237.txt</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0241.txt</t>
+  </si>
+  <si>
+    <t>CDC1.3.4</t>
+  </si>
+  <si>
+    <t>EKA_CDC_1.3.4_Patch_0006.txt</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0255.txt</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0261.txt</t>
   </si>
 </sst>
 </file>
@@ -439,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,6 +687,41 @@
       </c>
       <c r="I13" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="2">
+        <v>40872</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="2">
+        <v>40875</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="2">
+        <v>40878</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2">
+        <v>40879</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0261.txt</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0289</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0283</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -722,6 +728,22 @@
       </c>
       <c r="I17" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="2">
+        <v>40893</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2">
+        <v>40897</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0283</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0292</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -744,6 +747,14 @@
       </c>
       <c r="I19" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2">
+        <v>40899</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0292</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0299</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0301</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0308</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0311</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0316</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0323</t>
   </si>
 </sst>
 </file>
@@ -463,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -755,6 +773,54 @@
       </c>
       <c r="I20" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2">
+        <v>40904</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="2">
+        <v>40905</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="2">
+        <v>40907</v>
+      </c>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="2">
+        <v>40911</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="2">
+        <v>40916</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="2">
+        <v>40919</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11550" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -147,7 +147,10 @@
     <t>EKA_METALS_PATCH_0316</t>
   </si>
   <si>
-    <t>EKA_METALS_PATCH_0323</t>
+    <t>EKA_METALS_PATCH_0329</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0331</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -821,6 +824,19 @@
       </c>
       <c r="I26" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="2">
+        <v>40924</v>
+      </c>
+      <c r="I27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="2">
+        <v>40925</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0331</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0336</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0341</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -837,6 +843,22 @@
     <row r="28" spans="2:9">
       <c r="B28" s="2">
         <v>40925</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="2">
+        <v>40927</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="2">
+        <v>40928</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0341</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0352</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -859,6 +862,14 @@
       </c>
       <c r="I30" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="2">
+        <v>40935</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0352</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0355</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -870,6 +873,14 @@
       </c>
       <c r="I31" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="2">
+        <v>40937</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0355</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0357</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0382</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,6 +887,27 @@
       </c>
       <c r="I32" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="2">
+        <v>40938</v>
+      </c>
+      <c r="I33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="2">
+        <v>40939</v>
+      </c>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="2">
+        <v>40948</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0382</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0390</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -891,7 +894,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="2">
-        <v>40938</v>
+        <v>40939</v>
       </c>
       <c r="I33" t="s">
         <v>49</v>
@@ -899,7 +902,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2">
-        <v>40939</v>
+        <v>40948</v>
       </c>
       <c r="I34" t="s">
         <v>50</v>
@@ -907,7 +910,10 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="2">
-        <v>40948</v>
+        <v>40952</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0390</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0392</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0408</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0412</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0424</t>
   </si>
 </sst>
 </file>
@@ -505,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,6 +926,38 @@
       </c>
       <c r="I35" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="2">
+        <v>40954</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="2">
+        <v>40955</v>
+      </c>
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="2">
+        <v>40955</v>
+      </c>
+      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="2">
+        <v>40961</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -183,7 +183,40 @@
     <t>EKA_METALS_PATCH_0412</t>
   </si>
   <si>
-    <t>EKA_METALS_PATCH_0424</t>
+    <t>EKA_METALS_PATCH_0428</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0443</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0450</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0467</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0470</t>
+  </si>
+  <si>
+    <t>Released to QA</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0476</t>
+  </si>
+  <si>
+    <t>Applied to Ref</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0483</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0495</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0500</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0502</t>
   </si>
 </sst>
 </file>
@@ -199,12 +232,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,10 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -904,7 +945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="1:10">
       <c r="B33" s="2">
         <v>40939</v>
       </c>
@@ -912,7 +953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="1:10">
       <c r="B34" s="2">
         <v>40948</v>
       </c>
@@ -920,7 +961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="1:10">
       <c r="B35" s="2">
         <v>40952</v>
       </c>
@@ -928,7 +969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="1:10">
       <c r="B36" s="2">
         <v>40954</v>
       </c>
@@ -936,7 +977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="1:10">
       <c r="B37" s="2">
         <v>40955</v>
       </c>
@@ -944,7 +985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="1:10">
       <c r="B38" s="2">
         <v>40955</v>
       </c>
@@ -952,12 +993,118 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="1:10">
       <c r="B39" s="2">
         <v>40961</v>
       </c>
       <c r="I39" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="2">
+        <v>40965</v>
+      </c>
+      <c r="I40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="2">
+        <v>40967</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="2">
+        <v>40968</v>
+      </c>
+      <c r="I42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="3">
+        <v>40969</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="2">
+        <v>40971</v>
+      </c>
+      <c r="I44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="I45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2">
+        <v>40973</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="2">
+        <v>40974</v>
+      </c>
+      <c r="I47" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="3">
+        <v>40975</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -217,6 +217,21 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0502</t>
+  </si>
+  <si>
+    <t>Applied to Blank Schema</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0517</t>
+  </si>
+  <si>
+    <t>Applied only on Traxys_Automation_APP</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0531</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0536</t>
   </si>
 </sst>
 </file>
@@ -232,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +257,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,12 +279,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,7 +967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="B33" s="2">
         <v>40939</v>
       </c>
@@ -953,7 +975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="B34" s="2">
         <v>40948</v>
       </c>
@@ -961,7 +983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="B35" s="2">
         <v>40952</v>
       </c>
@@ -969,7 +991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="B36" s="2">
         <v>40954</v>
       </c>
@@ -977,7 +999,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="B37" s="2">
         <v>40955</v>
       </c>
@@ -985,7 +1007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="B38" s="2">
         <v>40955</v>
       </c>
@@ -993,7 +1015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="B39" s="2">
         <v>40961</v>
       </c>
@@ -1001,7 +1023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="B40" s="2">
         <v>40965</v>
       </c>
@@ -1009,7 +1031,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="B41" s="2">
         <v>40967</v>
       </c>
@@ -1017,7 +1039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="B42" s="2">
         <v>40968</v>
       </c>
@@ -1025,7 +1047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="B43" s="3">
         <v>40969</v>
       </c>
@@ -1042,7 +1064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="B44" s="2">
         <v>40971</v>
       </c>
@@ -1053,7 +1075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="I45" t="s">
         <v>63</v>
       </c>
@@ -1061,7 +1083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="2">
         <v>40973</v>
@@ -1079,7 +1101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="B47" s="2">
         <v>40974</v>
       </c>
@@ -1090,7 +1112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="B48" s="3">
         <v>40975</v>
       </c>
@@ -1105,6 +1127,42 @@
       </c>
       <c r="J48" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="2">
+        <v>40977</v>
+      </c>
+      <c r="I49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="2">
+        <v>40982</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="2">
+        <v>40983</v>
+      </c>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -225,13 +225,13 @@
     <t>EKA_METALS_PATCH_0517</t>
   </si>
   <si>
-    <t>Applied only on Traxys_Automation_APP</t>
-  </si>
-  <si>
     <t>EKA_METALS_PATCH_0531</t>
   </si>
   <si>
     <t>EKA_METALS_PATCH_0536</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0547</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,12 +257,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,13 +273,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,10 +1141,10 @@
         <v>40982</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
-      </c>
-      <c r="J50" s="5" t="s">
         <v>69</v>
+      </c>
+      <c r="J50" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -1159,10 +1152,21 @@
         <v>40983</v>
       </c>
       <c r="I51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="2">
+        <v>40984</v>
+      </c>
+      <c r="I52" t="s">
         <v>71</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>69</v>
+      <c r="J52" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0547</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0561</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0566</t>
   </si>
 </sst>
 </file>
@@ -573,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1125,7 +1131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:11">
       <c r="B49" s="2">
         <v>40977</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:11">
       <c r="B50" s="2">
         <v>40982</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:11">
       <c r="B51" s="2">
         <v>40983</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:11">
       <c r="B52" s="2">
         <v>40984</v>
       </c>
@@ -1166,6 +1172,31 @@
         <v>71</v>
       </c>
       <c r="J52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="2">
+        <v>40988</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="2">
+        <v>40988</v>
+      </c>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" t="s">
         <v>62</v>
       </c>
     </row>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0566</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0574</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0591</t>
   </si>
 </sst>
 </file>
@@ -579,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1197,6 +1203,28 @@
         <v>73</v>
       </c>
       <c r="J54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="2">
+        <v>40989</v>
+      </c>
+      <c r="I55" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="2">
+        <v>40993</v>
+      </c>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s">
         <v>62</v>
       </c>
     </row>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0591</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0594</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0602</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="D45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1225,6 +1231,31 @@
         <v>75</v>
       </c>
       <c r="J56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="2">
+        <v>40993</v>
+      </c>
+      <c r="I57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s">
+        <v>62</v>
+      </c>
+      <c r="K57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="2">
+        <v>40996</v>
+      </c>
+      <c r="I58" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s">
         <v>62</v>
       </c>
     </row>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0602</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0613</t>
   </si>
 </sst>
 </file>
@@ -591,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1256,6 +1259,14 @@
         <v>77</v>
       </c>
       <c r="J58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="I59" t="s">
+        <v>78</v>
+      </c>
+      <c r="J59" t="s">
         <v>62</v>
       </c>
     </row>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -253,6 +253,27 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0613</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0617</t>
+  </si>
+  <si>
+    <t>Released TO QA for UAT</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0650</t>
+  </si>
+  <si>
+    <t>Applied to Ref(METAL_APP_REF)</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0655</t>
+  </si>
+  <si>
+    <t>Applied To Blank</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0665</t>
   </si>
 </sst>
 </file>
@@ -268,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,12 +321,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,7 +1174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:13">
       <c r="B49" s="2">
         <v>40977</v>
       </c>
@@ -1157,7 +1185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:13">
       <c r="B50" s="2">
         <v>40982</v>
       </c>
@@ -1168,7 +1196,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:13">
       <c r="B51" s="2">
         <v>40983</v>
       </c>
@@ -1179,7 +1207,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:13">
       <c r="B52" s="2">
         <v>40984</v>
       </c>
@@ -1190,7 +1218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:13">
       <c r="B53" s="2">
         <v>40988</v>
       </c>
@@ -1204,7 +1232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:13">
       <c r="B54" s="2">
         <v>40988</v>
       </c>
@@ -1215,7 +1243,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:13">
       <c r="B55" s="2">
         <v>40989</v>
       </c>
@@ -1226,7 +1254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:13">
       <c r="B56" s="2">
         <v>40993</v>
       </c>
@@ -1237,9 +1265,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:13">
       <c r="B57" s="2">
-        <v>40993</v>
+        <v>40995</v>
       </c>
       <c r="I57" t="s">
         <v>76</v>
@@ -1251,7 +1279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:13">
       <c r="B58" s="2">
         <v>40996</v>
       </c>
@@ -1262,12 +1290,80 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:13">
+      <c r="B59" s="2">
+        <v>40997</v>
+      </c>
       <c r="I59" t="s">
         <v>78</v>
       </c>
       <c r="J59" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="2">
+        <v>40998</v>
+      </c>
+      <c r="I60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60" t="s">
+        <v>80</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="2">
+        <v>41003</v>
+      </c>
+      <c r="I61" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K61" t="s">
+        <v>80</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="2">
+        <v>41004</v>
+      </c>
+      <c r="I62" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s">
+        <v>82</v>
+      </c>
+      <c r="K62" t="s">
+        <v>80</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="2">
+        <v>41009</v>
+      </c>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" t="s">
+        <v>82</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0665</t>
+  </si>
+  <si>
+    <t>Applied to Ref(METALS_MAIN_APP_REF@CHMDB)</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0700</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0704</t>
   </si>
 </sst>
 </file>
@@ -622,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1362,8 +1371,33 @@
       <c r="J63" t="s">
         <v>82</v>
       </c>
+      <c r="K63" t="s">
+        <v>60</v>
+      </c>
       <c r="M63" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="2">
+        <v>41019</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+      <c r="J64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="2">
+        <v>41022</v>
+      </c>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0704</t>
+  </si>
+  <si>
+    <t>Applied To ef(METALS_MAIN_APP_REF,METALS_APP_REF)</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0757</t>
   </si>
 </sst>
 </file>
@@ -631,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1398,6 +1404,17 @@
       </c>
       <c r="J65" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="2">
+        <v>41053</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+      <c r="J66" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="11550" windowHeight="4470"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MAIN_APP_REF" sheetId="1" r:id="rId1"/>
+    <sheet name="BOLIDEN_MD_APP_REF" sheetId="2" r:id="rId2"/>
+    <sheet name="Traxys" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -285,23 +285,66 @@
     <t>EKA_METALS_PATCH_0704</t>
   </si>
   <si>
-    <t>Applied To ef(METALS_MAIN_APP_REF,METALS_APP_REF)</t>
-  </si>
-  <si>
     <t>EKA_METALS_PATCH_0757</t>
+  </si>
+  <si>
+    <t>BOLIDEN_MD_APP_REF@METAL8XQA</t>
+  </si>
+  <si>
+    <t>Schema Name:</t>
+  </si>
+  <si>
+    <t>In synch with Boliden Go live patches</t>
+  </si>
+  <si>
+    <t>    TRAXYS_APP_REF  @ METAL8XQA </t>
+  </si>
+  <si>
+    <t>    TRAXYS_EOD_REF @ METAL8XQA</t>
+  </si>
+  <si>
+    <t>    TRAXYS_CRC_REF @ METAL8XQA</t>
+  </si>
+  <si>
+    <t>In synch with Boliden go live</t>
+  </si>
+  <si>
+    <t>MDM1.5.9</t>
+  </si>
+  <si>
+    <t>CDC1.4.1</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0765</t>
+  </si>
+  <si>
+    <t>Applied To Ref(METALS_MAIN_APP_REF,METALS_APP_REF @CHMDB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -333,18 +376,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,10 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1411,10 +1462,27 @@
         <v>41053</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="2">
+        <v>41059</v>
+      </c>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" t="s">
+        <v>98</v>
+      </c>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1424,24 +1492,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C2:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>Applied To Ref(METALS_MAIN_APP_REF,METALS_APP_REF @CHMDB)</t>
+  </si>
+  <si>
+    <t>CDC1.4.2</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0769</t>
   </si>
 </sst>
 </file>
@@ -687,11 +693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,6 +1488,23 @@
         <v>99</v>
       </c>
       <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="2">
+        <v>41060</v>
+      </c>
+      <c r="C68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+      <c r="J68" t="s">
         <v>100</v>
       </c>
     </row>

--- a/DB Patch Applied.xlsx
+++ b/DB Patch Applied.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -325,6 +325,42 @@
   </si>
   <si>
     <t>EKA_METALS_PATCH_0769</t>
+  </si>
+  <si>
+    <t>EKA_METALS_PATCH_0840</t>
+  </si>
+  <si>
+    <t>2-Aug Release Patch applied on (METALS_MAIN_APP_REF,METALS_APP_REF @CHMDB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17th Aug Release Applied to </t>
+  </si>
+  <si>
+    <t>Tata Steel Ref Schema</t>
+  </si>
+  <si>
+    <t>Applied Patches upto 17-Aug-2012 Patch14</t>
+  </si>
+  <si>
+    <t>Applied Patches upto 17-Aug-2012 Patch16   on (METALS_MAIN_APP_REF,METALS_APP_REF @CHMDB)</t>
+  </si>
+  <si>
+    <t>Applied 31-Aug Release</t>
+  </si>
+  <si>
+    <t>Aplied Sep23rd Release on (METALS_MAIN_APP_REF,METALS_APP_REF @CHMDB,TATA Steel Ref schema)</t>
+  </si>
+  <si>
+    <t>Aplied all patches upto \\192.168.1.93\MetalsQAReleases\23-Sep-2012-Patch19  on (METALS_MAIN_APP_REF,METALS_APP_REF @CHMDB,TATA Steel Ref schema)</t>
+  </si>
+  <si>
+    <t>Applied \\192.168.1.93\MetalsQAReleases\5-Nov-2012 on TATA APP Ref Schema</t>
+  </si>
+  <si>
+    <t>Aplied all patches upto  30 Jan on Tata App Ref schema</t>
+  </si>
+  <si>
+    <t>Aplied all patches upto \\192.168.1.93\MetalsQAReleases\07-Dec-2012 Patch16 (METALS_MAIN_APP_REF,METALS_APP_REF @CHMDB,TATA Steel Ref schema)</t>
   </si>
 </sst>
 </file>
@@ -693,11 +729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1508,7 +1544,110 @@
         <v>100</v>
       </c>
     </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="2">
+        <v>41089</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" t="s">
+        <v>101</v>
+      </c>
+      <c r="I69" t="s">
+        <v>103</v>
+      </c>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="2">
+        <v>41140</v>
+      </c>
+      <c r="I70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="2">
+        <v>41152</v>
+      </c>
+      <c r="I72" t="s">
+        <v>107</v>
+      </c>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="2">
+        <v>41157</v>
+      </c>
+      <c r="I73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="2">
+        <v>41157</v>
+      </c>
+      <c r="I74" t="s">
+        <v>109</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="2">
+        <v>41175</v>
+      </c>
+      <c r="I75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="2">
+        <v>41217</v>
+      </c>
+      <c r="I76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="2">
+        <v>41217</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="2">
+        <v>41305</v>
+      </c>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I77" r:id="rId1" display="\\192.168.1.93\MetalsQAReleases\5-Nov-2012 on TATA APP Ref Schema"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
